--- a/data/06hope.xlsx
+++ b/data/06hope.xlsx
@@ -13,18 +13,19 @@
   </bookViews>
   <sheets>
     <sheet name="long" sheetId="1" r:id="rId1"/>
-    <sheet name="wide" sheetId="3" r:id="rId2"/>
+    <sheet name="wide" sheetId="4" r:id="rId2"/>
+    <sheet name="amt_wide" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">amt_wide!#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">long!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">wide!#REF!</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="44">
   <si>
     <t>2006-07</t>
   </si>
@@ -96,13 +97,74 @@
   </si>
   <si>
     <t>tier</t>
+  </si>
+  <si>
+    <t>HOPE Scholarship (1)</t>
+  </si>
+  <si>
+    <t>HOPE Scholarship (2)</t>
+  </si>
+  <si>
+    <t>HOPE Scholarship (3)</t>
+  </si>
+  <si>
+    <t>HOPE Scholarship (4)</t>
+  </si>
+  <si>
+    <t>awd2011-12</t>
+  </si>
+  <si>
+    <t>amt2011-12</t>
+  </si>
+  <si>
+    <t>awd2012-13</t>
+  </si>
+  <si>
+    <t>amt2012-13</t>
+  </si>
+  <si>
+    <t>awd2013-14</t>
+  </si>
+  <si>
+    <t>amt2013-14</t>
+  </si>
+  <si>
+    <t>awd2014-15</t>
+  </si>
+  <si>
+    <t>amt2014-15</t>
+  </si>
+  <si>
+    <t>awd2015-16</t>
+  </si>
+  <si>
+    <t>amt2015-16</t>
+  </si>
+  <si>
+    <t>awd2016-17</t>
+  </si>
+  <si>
+    <t>amt2016-17</t>
+  </si>
+  <si>
+    <t>awd2017-18</t>
+  </si>
+  <si>
+    <t>amt2017-18</t>
+  </si>
+  <si>
+    <t>awd2018-19</t>
+  </si>
+  <si>
+    <t>amt2018-19</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
@@ -141,7 +203,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -150,6 +212,11 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -733,13 +800,315 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="6">
+        <v>4232</v>
+      </c>
+      <c r="C2" s="7">
+        <v>21302027</v>
+      </c>
+      <c r="D2" s="6">
+        <v>4576</v>
+      </c>
+      <c r="E2" s="7">
+        <v>16833674</v>
+      </c>
+      <c r="F2" s="6">
+        <v>3445</v>
+      </c>
+      <c r="G2" s="7">
+        <v>17515909</v>
+      </c>
+      <c r="H2" s="6">
+        <v>3189</v>
+      </c>
+      <c r="I2" s="7">
+        <v>16282916</v>
+      </c>
+      <c r="J2" s="6">
+        <v>2917</v>
+      </c>
+      <c r="K2" s="7">
+        <v>15220785.58</v>
+      </c>
+      <c r="L2" s="6">
+        <v>2947</v>
+      </c>
+      <c r="M2" s="7">
+        <v>15267464.800000001</v>
+      </c>
+      <c r="N2" s="6">
+        <v>2778</v>
+      </c>
+      <c r="O2" s="7">
+        <v>14897419.199999999</v>
+      </c>
+      <c r="P2" s="6">
+        <v>2192</v>
+      </c>
+      <c r="Q2" s="7">
+        <v>11351133.119999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="6">
+        <v>3922</v>
+      </c>
+      <c r="C3" s="7">
+        <v>15257371</v>
+      </c>
+      <c r="D3" s="6">
+        <v>4819</v>
+      </c>
+      <c r="E3" s="7">
+        <v>16946579</v>
+      </c>
+      <c r="F3" s="6">
+        <v>3869</v>
+      </c>
+      <c r="G3" s="7">
+        <v>15705102</v>
+      </c>
+      <c r="H3" s="6">
+        <v>3892</v>
+      </c>
+      <c r="I3" s="7">
+        <v>16430372</v>
+      </c>
+      <c r="J3" s="6">
+        <v>3984</v>
+      </c>
+      <c r="K3" s="7">
+        <v>16997475.82</v>
+      </c>
+      <c r="L3" s="6">
+        <v>3778</v>
+      </c>
+      <c r="M3" s="7">
+        <v>16132437.689999999</v>
+      </c>
+      <c r="N3" s="6">
+        <v>3923</v>
+      </c>
+      <c r="O3" s="7">
+        <v>17003870.399999999</v>
+      </c>
+      <c r="P3" s="6">
+        <v>3863</v>
+      </c>
+      <c r="Q3" s="7">
+        <v>17341249.800000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="6">
+        <v>5097</v>
+      </c>
+      <c r="C4" s="7">
+        <v>20048256</v>
+      </c>
+      <c r="D4" s="6">
+        <v>5671</v>
+      </c>
+      <c r="E4" s="7">
+        <v>20074650</v>
+      </c>
+      <c r="F4" s="6">
+        <v>5208</v>
+      </c>
+      <c r="G4" s="7">
+        <v>21885162</v>
+      </c>
+      <c r="H4" s="6">
+        <v>5039</v>
+      </c>
+      <c r="I4" s="7">
+        <v>21296285</v>
+      </c>
+      <c r="J4" s="6">
+        <v>5230</v>
+      </c>
+      <c r="K4" s="7">
+        <v>22429765.969999999</v>
+      </c>
+      <c r="L4" s="6">
+        <v>5170</v>
+      </c>
+      <c r="M4" s="7">
+        <v>22359651.609999999</v>
+      </c>
+      <c r="N4" s="6">
+        <v>5142</v>
+      </c>
+      <c r="O4" s="7">
+        <v>22955909.600000001</v>
+      </c>
+      <c r="P4" s="6">
+        <v>5228</v>
+      </c>
+      <c r="Q4" s="7">
+        <v>24101607.199999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="6">
+        <v>5555</v>
+      </c>
+      <c r="C5" s="7">
+        <v>17633275</v>
+      </c>
+      <c r="D5" s="6">
+        <v>5731</v>
+      </c>
+      <c r="E5" s="7">
+        <v>18726343</v>
+      </c>
+      <c r="F5" s="6">
+        <v>5167</v>
+      </c>
+      <c r="G5" s="7">
+        <v>18605136</v>
+      </c>
+      <c r="H5" s="6">
+        <v>5324</v>
+      </c>
+      <c r="I5" s="7">
+        <v>20357359</v>
+      </c>
+      <c r="J5" s="6">
+        <v>5138</v>
+      </c>
+      <c r="K5" s="7">
+        <v>19723686.630000006</v>
+      </c>
+      <c r="L5" s="6">
+        <v>5334</v>
+      </c>
+      <c r="M5" s="7">
+        <v>20618731.899999999</v>
+      </c>
+      <c r="N5" s="6">
+        <v>5323</v>
+      </c>
+      <c r="O5" s="7">
+        <v>20765002.399999999</v>
+      </c>
+      <c r="P5" s="6">
+        <v>5237</v>
+      </c>
+      <c r="Q5" s="7">
+        <v>21610581.879999995</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1010,7 +1379,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{369140EE-CF29-43D9-9DE3-8D63603A357A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0888DE8-A862-4DCB-AB61-9D1A838AC4F3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/PowerBIAddIn"/>
   </ds:schemaRefs>
